--- a/output/0/tRNA-Pro-AGG-2-4.xlsx
+++ b/output/0/tRNA-Pro-AGG-2-4.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
   <si>
     <t>chr11</t>
   </si>
   <si>
-    <t>75946381</t>
-  </si>
-  <si>
-    <t>75946404</t>
+    <t>75946568</t>
+  </si>
+  <si>
+    <t>75946591</t>
   </si>
   <si>
     <t>0</t>
@@ -29,133 +29,79 @@
     <t>+</t>
   </si>
   <si>
-    <t>75946401</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
+    <t>75946588</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
   </si>
   <si>
     <t>255,0,0</t>
   </si>
   <si>
-    <t>CCGGCGACAGAGCCAGTCTC</t>
+    <t>TAGGGGTATGATTCTCGCTT</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>19% (38)</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>75946569</t>
+  </si>
+  <si>
+    <t>75946592</t>
+  </si>
+  <si>
+    <t>75946589</t>
+  </si>
+  <si>
+    <t>AGGGGTATGATTCTCGCTTA</t>
   </si>
   <si>
     <t>GGG</t>
   </si>
   <si>
-    <t>32% (44)</t>
-  </si>
-  <si>
-    <t>88% (67)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 32%, Moreno-Mateos: 88%</t>
-  </si>
-  <si>
-    <t>75946382</t>
-  </si>
-  <si>
-    <t>75946405</t>
-  </si>
-  <si>
-    <t>75946402</t>
-  </si>
-  <si>
-    <t>CGGCGACAGAGCCAGTCTCG</t>
+    <t>50% (50)</t>
+  </si>
+  <si>
+    <t>94% (75)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>75946578</t>
+  </si>
+  <si>
+    <t>75946601</t>
+  </si>
+  <si>
+    <t>75946598</t>
+  </si>
+  <si>
+    <t>ATTCTCGCTTAGGGTGCGAG</t>
   </si>
   <si>
     <t>95% (67)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 95%, Moreno-Mateos: 71%</t>
-  </si>
-  <si>
-    <t>75946568</t>
-  </si>
-  <si>
-    <t>75946591</t>
-  </si>
-  <si>
-    <t>75946588</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>TAGGGGTATGATTCTCGCTT</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>19% (38)</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>75946569</t>
-  </si>
-  <si>
-    <t>75946592</t>
-  </si>
-  <si>
-    <t>75946589</t>
-  </si>
-  <si>
-    <t>AGGGGTATGATTCTCGCTTA</t>
-  </si>
-  <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>94% (75)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>75946578</t>
-  </si>
-  <si>
-    <t>75946601</t>
-  </si>
-  <si>
-    <t>75946598</t>
-  </si>
-  <si>
-    <t>ATTCTCGCTTAGGGTGCGAG</t>
   </si>
   <si>
     <t>41% (41)</t>
@@ -314,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -358,22 +304,22 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -384,10 +330,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -396,10 +342,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -411,28 +357,28 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
@@ -443,10 +389,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -455,16 +401,16 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -473,25 +419,25 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
@@ -502,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -514,43 +460,43 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
       </c>
       <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>41</v>
       </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>43</v>
-      </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
         <v>3</v>
@@ -561,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -573,43 +519,43 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
       </c>
       <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>48</v>
       </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="S5" t="s">
         <v>3</v>
@@ -620,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -632,43 +578,43 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>59</v>
-      </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
         <v>3</v>
@@ -679,55 +625,55 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="S7" t="s">
         <v>3</v>
@@ -738,175 +684,57 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
         <v>30</v>
       </c>
-      <c r="N8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" t="s">
-        <v>71</v>
-      </c>
       <c r="P8" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" t="s">
         <v>3</v>
       </c>
     </row>
